--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/40_İstanbul_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/40_İstanbul_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8830AC-AF6F-4079-9668-D46E5380B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1496A2B1-6BE2-4269-8A4F-AF0F0D778C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{5696C9D9-E350-477B-A222-D2891585E10A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{789723A8-E8E5-4C88-B902-4AA696088F95}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0E9457E9-A4F5-4E59-ACF6-D608205B07B6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{38FA33BB-0D72-41A3-9C79-0BA20C24F04B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4307959A-2152-4677-92ED-96773609579B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{728B872F-6933-49BB-B8AA-CCC908A2D280}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8DD3914C-000C-4ABC-A797-A5DA60936202}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{0D85475A-3BA9-41CE-99BC-FFBCCC2B5736}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1367BAF6-3DAC-46C9-B10D-E0EBE694040D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B20E3C58-FF96-4071-9480-13C12159ED5E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{62FB2AB6-AD3C-4232-A315-A733EB09F2CA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EBE6E770-2ABC-42A2-9709-0C8727019350}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{025259ED-C982-44EE-8B19-C4BE0AA35FD5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D9BD3F06-A0D6-4B19-BAE6-7AA4970894C8}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{CAFAFB00-596B-4AEF-86C2-00E474606F25}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{31F2DAE1-8E3C-4AFA-8F23-250471000F78}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6EF0B1-19A8-44AF-A45A-3EA3DE281494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E4F542-1674-45A8-A495-D97623AEFB2F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2632,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FECB36-972D-47E8-AB2B-9982F2B308B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127DF4D-A45A-44C1-B030-49EEAD64BE8A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3978,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDFBF92-A87C-46A1-B5E7-36D3E8CC3CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835E9F31-C1B9-49D3-BB9B-80302C82F1E9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5326,7 +5326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE12B4C5-4DE3-4F23-A4E4-636491C87ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141EC0B-5D35-4945-AB23-9AA45E074C2B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6674,7 +6674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82070A0-8D82-4C3A-8FA3-0A285B7181A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEFF38B-089D-46D0-996C-6F4D624F7588}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8027,7 +8027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA7C8F-DB5D-4607-A7DC-46E1DAD8681B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC79A92B-368B-47C3-8E5E-A6CDB74EBC19}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9380,7 +9380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBE66B0-12A3-4A16-B038-2EBA9863E776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64665BFA-19E0-4A30-87BB-3C39D6040E75}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10733,7 +10733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12094B7A-7D03-4293-BC5D-01897BD4F15D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA458F56-0945-45A5-BC60-1FEDFC83DACF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12086,7 +12086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1949CB-A33A-450F-8193-FBCEA94AEAAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9ED9C9-4DC6-433D-BFC0-4FC5EF574428}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13441,7 +13441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BED50-291C-4823-90C3-498A8529E46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C212E90-8D34-49A0-952D-146C64C0818E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14796,7 +14796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEDB6A-9A92-4989-ACF3-435B6B825CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A780F14-B5E9-4041-B4CF-93698D25747D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16151,7 +16151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C91AF9-AD68-4AA9-8E89-0CFC4EDEE431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AFE1A2-3366-4EC1-BC83-335F310A8307}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
